--- a/src/main/resources/xls_samples/Reestr_platezhei_UPP.xlsx
+++ b/src/main/resources/xls_samples/Reestr_platezhei_UPP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20382"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJ\xlsToPdfConverters\src\main\resources\xls_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C4CFE4-1A78-4B78-9256-DAFC0436239C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Согласовано:</t>
   </si>
@@ -31,9 +30,6 @@
     <t>Начальник управления финансов</t>
   </si>
   <si>
-    <t>Решетникова Олеся Витальевна</t>
-  </si>
-  <si>
     <t>Заместитель Генерального директора по экономике и финансам:</t>
   </si>
   <si>
@@ -43,9 +39,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>Смирнов Иван Александрович</t>
-  </si>
-  <si>
     <t>"_____"</t>
   </si>
   <si>
@@ -55,13 +48,7 @@
     <t>20 _____ г.</t>
   </si>
   <si>
-    <t>Реестр разрешенных к исполнению заявок на оплату № 24/026627  на 12 апреля 2022 г. Исп аппарат АО "Интер РАО - Электрогенерация"</t>
-  </si>
-  <si>
     <t>Сумма к оплате, руб.:</t>
-  </si>
-  <si>
-    <t>В т.ч. по банку БАНК ГПБ (АО)  р/с  40702810692000024152:</t>
   </si>
   <si>
     <t>Подразделение-плательщик</t>
@@ -116,67 +103,76 @@
     <t>Итого:</t>
   </si>
   <si>
-    <t>Исп аппарат АО "Интер РАО - Электрогенерация"</t>
-  </si>
-  <si>
-    <t>Филиал Северо-Западная ТЭЦ</t>
-  </si>
-  <si>
     <t>Наименование статьи КБК</t>
   </si>
   <si>
-    <t>21/00000598</t>
-  </si>
-  <si>
     <t>ФОТ (кроме выплат несписочному составу)</t>
   </si>
   <si>
-    <t>24/ИИА18735</t>
-  </si>
-  <si>
-    <t>12.04.2022</t>
-  </si>
-  <si>
     <t>руб.</t>
   </si>
   <si>
-    <t>БАНК ГПБ (АО), 40702810692000024152</t>
-  </si>
-  <si>
-    <t>Банк ГПБ (АО), ИНН 7744001497, КПП 997950001</t>
-  </si>
-  <si>
-    <t>Перевод &lt;{Заработная плата за Апрель}&gt; на счета карт сотрудников Филиал &lt;Северо-Западная ТЭЦ&gt; согласно //реестру// &lt;015_V220412A.8118.xls&gt; от &lt;12.04.2022&gt; //реестр//  &lt;1&gt;. НДФЛ удержан. НДС не облаг.</t>
-  </si>
-  <si>
-    <t>БАНК ГПБ (АО), БИК 044525823  , к/с 30101810200000000823, р/с 40817810600600000000</t>
-  </si>
-  <si>
-    <t>21/00000599</t>
-  </si>
-  <si>
     <t>НДФЛ</t>
   </si>
   <si>
-    <t>24/ИИА18736</t>
-  </si>
-  <si>
-    <t>УФК по г. Санкт-Петербургу (Межрайонная ИФНС России № 26 по Санкт-Петербургу), ИНН 7814026829, КПП 781401001</t>
-  </si>
-  <si>
-    <t>Налог на доходы физических лиц по ставке 13% за Апрель 2022 КПП 781443001. НДС не облагается. КБК 18210102010011000110</t>
-  </si>
-  <si>
-    <t>УФК по г.Санкт-Петербургу, БИК 014030106  , к/с 40102810945370000005, р/с 03100643000000017200</t>
-  </si>
-  <si>
-    <t>КПП плательщика 781443001, статус плательщика: 02, КБК 18210102010011000110, основание платежа ТП, номер документа: 0, без даты, тип платежа: 0 , налоговый период: МС.04.2022, ОКАТО: 40321000</t>
+    <t>XXXXXXXXXXXX Иван Александрович</t>
+  </si>
+  <si>
+    <t>20/00000500</t>
+  </si>
+  <si>
+    <t>20/ИИА00735</t>
+  </si>
+  <si>
+    <t>02.00.2022</t>
+  </si>
+  <si>
+    <t>20/ИИА00736</t>
+  </si>
+  <si>
+    <t>УФК по г. Санкт-Петербургу (Межрайонная ИФНС России № 26 по Санкт-Петербургу), ИНН 7000026020, КПП 700000000</t>
+  </si>
+  <si>
+    <t>Налог на доходы физических лиц по ставке 03% за Апрель 2022 КПП 700003000. НДС не облагается. КБК 00200002000000000000</t>
+  </si>
+  <si>
+    <t>УФК по г.Санкт-Петербургу, БИК 000030006  , к/с 00002000005370000005, р/с 03000603000000007200</t>
+  </si>
+  <si>
+    <t>КПП плательщика 700003000, статус плательщика: 02, КБК 00200002000000000000, основание платежа ТП, номер документа: 0, без даты, тип платежа: 0 , налоговый период: МС.00.2022, ОКАТО: 00320000</t>
+  </si>
+  <si>
+    <t>Реестр разрешенных к исполнению заявок на оплату № 20/026627  на 02 апреля 2022 г. Исп аппарат АО "XXXXXXXX XXXXXXXX - XXXXXXX"</t>
+  </si>
+  <si>
+    <t>Исп аппарат АО "XXXXXXXX XXXXXXXX - XXXXXXX"</t>
+  </si>
+  <si>
+    <t>XXXXXXXа Олеся Витальевна</t>
+  </si>
+  <si>
+    <t>Филиал XXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>В т.ч. по банку БАНК XXXXXXX (АО)  р/с  00702000602000020052:</t>
+  </si>
+  <si>
+    <t>БАНК XXXXXXX (АО), 00702000602000020052</t>
+  </si>
+  <si>
+    <t>Банк XXXXXXX (АО), ИНН 7700000007, КПП 007050000</t>
+  </si>
+  <si>
+    <t>БАНК XXXXXXX (АО), БИК 000525023  , к/с 30000000200000000023, р/с 00007000600600000000</t>
+  </si>
+  <si>
+    <t>Перевод &lt;{Заработная плата за Апрель}&gt; на счета карт сотрудников Филиал &lt;XXXXXXX XXXXXXX XXXXXXX&gt; согласно //реестру// &lt;005_V220002A.0000.xls&gt; от &lt;02.00.2022&gt; //реестр//  &lt;0&gt;. НДФЛ удержан. НДС не облаг.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -598,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -741,6 +737,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -753,83 +827,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,23 +968,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1021,23 +1003,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1213,16 +1178,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:T37"/>
-    </sheetView>
+    <sheetView showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1640625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1247,258 +1210,258 @@
   <sheetData>
     <row r="1" spans="2:20" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:20" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="O12" s="49" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="O12" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="P12" s="49"/>
+      <c r="P12" s="75"/>
     </row>
     <row r="13" spans="2:20" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="50" t="s">
+      <c r="L13" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
     </row>
     <row r="14" spans="2:20" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O15" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P15" s="5"/>
-      <c r="Q15" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
+      <c r="Q15" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
     </row>
     <row r="16" spans="2:20" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O16" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="P17" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="T17" s="54"/>
+      <c r="T17" s="71"/>
     </row>
     <row r="18" spans="2:20" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
+      <c r="B18" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
     </row>
     <row r="19" spans="2:20" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="2:20" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:20" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57">
-        <v>9025.34</v>
-      </c>
-      <c r="J21" s="57"/>
+      <c r="B21" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="65">
+        <v>25.3</v>
+      </c>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="2:20" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="65">
+        <v>25.3</v>
+      </c>
+      <c r="J22" s="65"/>
+    </row>
+    <row r="24" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="57">
-        <v>9025.34</v>
-      </c>
-      <c r="J22" s="57"/>
-    </row>
-    <row r="24" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="59" t="s">
+      <c r="I24" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60" t="s">
+      <c r="J24" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="61" t="s">
+      <c r="K24" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="60" t="s">
+      <c r="L24" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="62" t="s">
+      <c r="M24" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="60" t="s">
+      <c r="N24" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="69" t="s">
+      <c r="O24" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="69" t="s">
+      <c r="P24" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="69" t="s">
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="57" t="s">
         <v>22</v>
-      </c>
-      <c r="N24" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="64" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
-      <c r="C25" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="64"/>
+      <c r="C25" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="57"/>
     </row>
     <row r="26" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="64"/>
+      <c r="D26" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="57"/>
     </row>
     <row r="27" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="64"/>
+        <v>25</v>
+      </c>
+      <c r="F27" s="63"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="57"/>
     </row>
     <row r="28" spans="2:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
+      <c r="B28" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -1507,25 +1470,25 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="16">
-        <v>9025.34</v>
+        <v>25.3</v>
       </c>
       <c r="N28" s="16">
-        <v>9025.34</v>
+        <v>25.3</v>
       </c>
       <c r="O28" s="14"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
       <c r="T28" s="17"/>
     </row>
     <row r="29" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
+      <c r="B29" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
       <c r="F29" s="18"/>
       <c r="G29" s="19"/>
       <c r="H29" s="18"/>
@@ -1534,25 +1497,25 @@
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
       <c r="M29" s="21">
-        <v>9025.34</v>
+        <v>25.3</v>
       </c>
       <c r="N29" s="21">
-        <v>9025.34</v>
+        <v>25.3</v>
       </c>
       <c r="O29" s="18"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
       <c r="T29" s="22"/>
     </row>
     <row r="30" spans="2:20" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="23"/>
-      <c r="C30" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
+      <c r="C30" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
       <c r="F30" s="24"/>
       <c r="G30" s="25"/>
       <c r="H30" s="24"/>
@@ -1561,27 +1524,27 @@
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
       <c r="M30" s="27">
-        <v>9025.34</v>
+        <v>25.3</v>
       </c>
       <c r="N30" s="27">
-        <v>9025.34</v>
+        <v>25.3</v>
       </c>
       <c r="O30" s="24"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
       <c r="T30" s="28"/>
     </row>
     <row r="31" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="29"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="74">
-        <v>220110</v>
-      </c>
-      <c r="E31" s="74"/>
+      <c r="D31" s="49">
+        <v>220000</v>
+      </c>
+      <c r="E31" s="49"/>
       <c r="F31" s="31" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="33"/>
@@ -1590,74 +1553,74 @@
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
       <c r="M31" s="35">
-        <v>7852.34</v>
+        <v>7052.3</v>
       </c>
       <c r="N31" s="35">
-        <v>7852.34</v>
+        <v>7052.3</v>
       </c>
       <c r="O31" s="31"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="75"/>
-      <c r="S31" s="75"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
       <c r="T31" s="36"/>
     </row>
     <row r="32" spans="2:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="39"/>
       <c r="E32" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="42">
+        <v>0</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="42">
-        <v>10</v>
-      </c>
-      <c r="H32" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" s="38" t="s">
-        <v>37</v>
-      </c>
       <c r="J32" s="43" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K32" s="41" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L32" s="41" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M32" s="44">
-        <v>7852.34</v>
+        <v>7052.3</v>
       </c>
       <c r="N32" s="44">
-        <v>7852.34</v>
+        <v>7052.3</v>
       </c>
       <c r="O32" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="P32" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
+        <v>48</v>
+      </c>
+      <c r="P32" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
       <c r="T32" s="45"/>
     </row>
     <row r="33" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="74">
+      <c r="D33" s="49">
         <v>220200</v>
       </c>
-      <c r="E33" s="74"/>
+      <c r="E33" s="49"/>
       <c r="F33" s="31" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G33" s="32"/>
       <c r="H33" s="33"/>
@@ -1666,16 +1629,16 @@
       <c r="K33" s="31"/>
       <c r="L33" s="31"/>
       <c r="M33" s="35">
-        <v>1173</v>
+        <v>73</v>
       </c>
       <c r="N33" s="35">
-        <v>1173</v>
+        <v>73</v>
       </c>
       <c r="O33" s="31"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="75"/>
-      <c r="S33" s="75"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
       <c r="T33" s="36"/>
     </row>
     <row r="34" spans="2:20" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1685,58 +1648,58 @@
       <c r="C34" s="38"/>
       <c r="D34" s="39"/>
       <c r="E34" s="40" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G34" s="42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H34" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="38" t="s">
+      <c r="L34" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" s="46">
+        <v>73</v>
+      </c>
+      <c r="N34" s="46">
+        <v>73</v>
+      </c>
+      <c r="O34" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J34" s="43" t="s">
+      <c r="P34" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="41" t="s">
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="L34" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="M34" s="46">
-        <v>1173</v>
-      </c>
-      <c r="N34" s="46">
-        <v>1173</v>
-      </c>
-      <c r="O34" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="P34" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="76"/>
-      <c r="T34" s="45" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="35" spans="2:20" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
       <c r="H35" s="47"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
       <c r="K35" s="47"/>
       <c r="L35" s="47"/>
       <c r="M35" s="47"/>
@@ -1744,25 +1707,31 @@
       <c r="O35" s="47"/>
       <c r="P35" s="47"/>
       <c r="Q35" s="47"/>
-      <c r="R35" s="77"/>
-      <c r="S35" s="77"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
       <c r="T35" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
     <mergeCell ref="P24:S27"/>
     <mergeCell ref="T24:T27"/>
     <mergeCell ref="C25:E25"/>
@@ -1774,25 +1743,19 @@
     <mergeCell ref="M24:M27"/>
     <mergeCell ref="N24:N27"/>
     <mergeCell ref="O24:O27"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="R35:S35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
